--- a/AlquileresApp.xlsx
+++ b/AlquileresApp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/629571131a2e61a8/Documents/041 - Personal/2024/05 - Alquileres/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/629571131a2e61a8/Documents/041 - Personal/2024/10 - UTN/WebAlquileres/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{DDADFD9C-378D-2342-9565-AB668A70CC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6974EE15-0B5B-D24E-94C6-A9ADD3831600}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{DDADFD9C-378D-2342-9565-AB668A70CC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B00126C9-C3D9-C54C-A0E7-78A01430E4CE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28580" windowHeight="16280" firstSheet="11" activeTab="16" xr2:uid="{588A6F5C-727E-C144-960C-2E5EA3C9F402}"/>
   </bookViews>
@@ -6043,7 +6043,7 @@
   <dimension ref="B1:K18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6442,7 +6442,9 @@
       <c r="E17" s="65">
         <v>15</v>
       </c>
-      <c r="F17" s="104"/>
+      <c r="F17" s="104">
+        <v>290000</v>
+      </c>
       <c r="G17" s="96"/>
       <c r="I17" s="96"/>
     </row>
@@ -6455,7 +6457,7 @@
       <c r="E18" s="70"/>
       <c r="F18" s="102">
         <f>SUM(F3:F17)</f>
-        <v>1410000</v>
+        <v>1700000</v>
       </c>
       <c r="G18" s="97"/>
       <c r="H18" s="70"/>
@@ -6813,7 +6815,7 @@
       </c>
       <c r="B1" s="9">
         <f ca="1">TODAY()</f>
-        <v>45358</v>
+        <v>45362</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
